--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calca-Calcrl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Calca</t>
+  </si>
+  <si>
+    <t>Calcrl</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Calca</t>
-  </si>
-  <si>
-    <t>Calcrl</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,14 +528,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H2">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I2">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N2">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q2">
-        <v>18.22127112462222</v>
+        <v>18.21952240899733</v>
       </c>
       <c r="R2">
-        <v>163.9914401216</v>
+        <v>163.975701680976</v>
       </c>
       <c r="S2">
-        <v>0.3436812414222384</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="T2">
-        <v>0.3436812414222385</v>
+        <v>0.5039383032147023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H3">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I3">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>39.025447</v>
       </c>
       <c r="O3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q3">
-        <v>4.635876210737777</v>
+        <v>4.526340453330334</v>
       </c>
       <c r="R3">
-        <v>41.72288589663999</v>
+        <v>40.737064079973</v>
       </c>
       <c r="S3">
-        <v>0.08743976642953416</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="T3">
-        <v>0.08743976642953416</v>
+        <v>0.1251951767241128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H4">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I4">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N4">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O4">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P4">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q4">
-        <v>2.99462127559111</v>
+        <v>3.563084301843</v>
       </c>
       <c r="R4">
-        <v>26.95159148032</v>
+        <v>32.067758716587</v>
       </c>
       <c r="S4">
-        <v>0.05648317016664436</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="T4">
-        <v>0.05648317016664439</v>
+        <v>0.09855223517796474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H5">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I5">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N5">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O5">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P5">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q5">
-        <v>1.969690381013333</v>
+        <v>0.632028440307</v>
       </c>
       <c r="R5">
-        <v>17.72721342912</v>
+        <v>5.688255962763001</v>
       </c>
       <c r="S5">
-        <v>0.03715139469327991</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="T5">
-        <v>0.03715139469327991</v>
+        <v>0.01748143187520975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H6">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I6">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N6">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q6">
-        <v>5.193203358719999</v>
+        <v>5.527661619158668</v>
       </c>
       <c r="R6">
-        <v>46.73883022847999</v>
+        <v>49.748954572428</v>
       </c>
       <c r="S6">
-        <v>0.09795181494617226</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="T6">
-        <v>0.09795181494617228</v>
+        <v>0.1528909679722583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3563733333333333</v>
+        <v>0.347953</v>
       </c>
       <c r="H7">
-        <v>1.06912</v>
+        <v>1.043859</v>
       </c>
       <c r="I7">
-        <v>0.7076478281820058</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.7076478281820059</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N7">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q7">
-        <v>4.503367102115554</v>
+        <v>3.685634624270667</v>
       </c>
       <c r="R7">
-        <v>40.53030391903999</v>
+        <v>33.170711618436</v>
       </c>
       <c r="S7">
-        <v>0.08494044052413666</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="T7">
-        <v>0.08494044052413667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.441688</v>
-      </c>
-      <c r="I8">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J8">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>51.12972666666666</v>
-      </c>
-      <c r="N8">
-        <v>153.38918</v>
-      </c>
-      <c r="O8">
-        <v>0.485667061686854</v>
-      </c>
-      <c r="P8">
-        <v>0.485667061686854</v>
-      </c>
-      <c r="Q8">
-        <v>7.527795570648889</v>
-      </c>
-      <c r="R8">
-        <v>67.75016013583999</v>
-      </c>
-      <c r="S8">
-        <v>0.1419858202646155</v>
-      </c>
-      <c r="T8">
-        <v>0.1419858202646155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.441688</v>
-      </c>
-      <c r="I9">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J9">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>13.00848233333333</v>
-      </c>
-      <c r="N9">
-        <v>39.025447</v>
-      </c>
-      <c r="O9">
-        <v>0.1235639578717746</v>
-      </c>
-      <c r="P9">
-        <v>0.1235639578717746</v>
-      </c>
-      <c r="Q9">
-        <v>1.915230181615111</v>
-      </c>
-      <c r="R9">
-        <v>17.237071634536</v>
-      </c>
-      <c r="S9">
-        <v>0.03612419144224044</v>
-      </c>
-      <c r="T9">
-        <v>0.03612419144224043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H10">
-        <v>0.441688</v>
-      </c>
-      <c r="I10">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J10">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.403045333333333</v>
-      </c>
-      <c r="N10">
-        <v>25.209136</v>
-      </c>
-      <c r="O10">
-        <v>0.07981819192712479</v>
-      </c>
-      <c r="P10">
-        <v>0.0798181919271248</v>
-      </c>
-      <c r="Q10">
-        <v>1.237174762396445</v>
-      </c>
-      <c r="R10">
-        <v>11.134572861568</v>
-      </c>
-      <c r="S10">
-        <v>0.02333502176048042</v>
-      </c>
-      <c r="T10">
-        <v>0.02333502176048042</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.441688</v>
-      </c>
-      <c r="I11">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J11">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.527042000000001</v>
-      </c>
-      <c r="N11">
-        <v>16.581126</v>
-      </c>
-      <c r="O11">
-        <v>0.05249983567210869</v>
-      </c>
-      <c r="P11">
-        <v>0.05249983567210868</v>
-      </c>
-      <c r="Q11">
-        <v>0.8137427089653335</v>
-      </c>
-      <c r="R11">
-        <v>7.323684380688001</v>
-      </c>
-      <c r="S11">
-        <v>0.01534844097882878</v>
-      </c>
-      <c r="T11">
-        <v>0.01534844097882877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.441688</v>
-      </c>
-      <c r="I12">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J12">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>14.572368</v>
-      </c>
-      <c r="N12">
-        <v>43.717104</v>
-      </c>
-      <c r="O12">
-        <v>0.1384188731248098</v>
-      </c>
-      <c r="P12">
-        <v>0.1384188731248098</v>
-      </c>
-      <c r="Q12">
-        <v>2.145480025728</v>
-      </c>
-      <c r="R12">
-        <v>19.309320231552</v>
-      </c>
-      <c r="S12">
-        <v>0.04046705817863752</v>
-      </c>
-      <c r="T12">
-        <v>0.04046705817863752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1472293333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.441688</v>
-      </c>
-      <c r="I13">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="J13">
-        <v>0.2923521718179941</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.63665566666666</v>
-      </c>
-      <c r="N13">
-        <v>37.90996699999999</v>
-      </c>
-      <c r="O13">
-        <v>0.1200320797173282</v>
-      </c>
-      <c r="P13">
-        <v>0.1200320797173282</v>
-      </c>
-      <c r="Q13">
-        <v>1.860486389366222</v>
-      </c>
-      <c r="R13">
-        <v>16.744377504296</v>
-      </c>
-      <c r="S13">
-        <v>0.03509163919319148</v>
-      </c>
-      <c r="T13">
-        <v>0.03509163919319148</v>
+        <v>0.1019418850357522</v>
       </c>
     </row>
   </sheetData>
